--- a/data/trans_dic/P16A18-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16A18-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -744,42 +745,42 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,45; 15,76</t>
+          <t>8,49; 15,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,44; 15,27</t>
+          <t>7,34; 15,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,06; 7,73</t>
+          <t>2,97; 7,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,78; 3,44</t>
+          <t>0,77; 3,41</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,45; 15,76</t>
+          <t>8,49; 15,68</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,44; 15,27</t>
+          <t>7,34; 15,12</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,06; 7,73</t>
+          <t>2,97; 7,89</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,78; 3,44</t>
+          <t>0,77; 3,41</t>
         </is>
       </c>
     </row>
@@ -884,42 +885,42 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,97; 15,7</t>
+          <t>9,07; 16,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,51; 12,12</t>
+          <t>5,07; 11,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,96; 10,56</t>
+          <t>4,98; 10,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,59; 5,86</t>
+          <t>1,6; 5,47</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,97; 15,7</t>
+          <t>9,07; 16,18</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,51; 12,12</t>
+          <t>5,07; 11,77</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,96; 10,56</t>
+          <t>4,98; 10,34</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,59; 5,86</t>
+          <t>1,6; 5,47</t>
         </is>
       </c>
     </row>
@@ -1024,42 +1025,42 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,76; 10,47</t>
+          <t>2,9; 10,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,38; 9,13</t>
+          <t>3,41; 9,31</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,67; 7,9</t>
+          <t>1,22; 7,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,15; 6,87</t>
+          <t>1,05; 7,24</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,76; 10,47</t>
+          <t>2,9; 10,23</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,38; 9,13</t>
+          <t>3,41; 9,31</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,67; 7,9</t>
+          <t>1,22; 7,38</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,15; 6,87</t>
+          <t>1,05; 7,24</t>
         </is>
       </c>
     </row>
@@ -1164,42 +1165,42 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,57; 9,6</t>
+          <t>5,85; 9,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,59; 10,8</t>
+          <t>6,73; 10,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,94; 7,0</t>
+          <t>3,94; 6,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,2; 3,74</t>
+          <t>1,12; 3,52</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,57; 9,6</t>
+          <t>5,85; 9,58</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,59; 10,8</t>
+          <t>6,73; 10,82</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,94; 7,0</t>
+          <t>3,94; 6,79</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,2; 3,74</t>
+          <t>1,12; 3,52</t>
         </is>
       </c>
     </row>
@@ -1304,42 +1305,42 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,12; 8,24</t>
+          <t>4,04; 8,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,68; 6,85</t>
+          <t>3,63; 6,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,14; 4,84</t>
+          <t>2,25; 5,04</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,52; 1,9</t>
+          <t>0,49; 1,83</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,12; 8,24</t>
+          <t>4,04; 8,36</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,68; 6,85</t>
+          <t>3,63; 6,98</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,14; 4,84</t>
+          <t>2,25; 5,04</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,52; 1,9</t>
+          <t>0,49; 1,83</t>
         </is>
       </c>
     </row>
@@ -1444,42 +1445,42 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,18; 4,07</t>
+          <t>2,11; 4,11</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,67; 6,2</t>
+          <t>3,6; 6,21</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,09; 4,07</t>
+          <t>2,03; 4,1</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,06; 1,44</t>
+          <t>0,06; 1,43</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,18; 4,07</t>
+          <t>2,11; 4,11</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>3,67; 6,2</t>
+          <t>3,6; 6,21</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2,09; 4,07</t>
+          <t>2,03; 4,1</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,06; 1,44</t>
+          <t>0,06; 1,43</t>
         </is>
       </c>
     </row>
@@ -1584,17 +1585,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,59; 7,22</t>
+          <t>5,52; 7,18</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,77; 7,5</t>
+          <t>5,77; 7,45</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,62; 4,96</t>
+          <t>3,61; 4,98</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1605,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,59; 7,22</t>
+          <t>5,52; 7,18</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>5,77; 7,5</t>
+          <t>5,77; 7,45</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>3,62; 4,96</t>
+          <t>3,61; 4,98</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido anticonceptivos en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>35386</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>33231</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>17218</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>7983</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>35386</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>33231</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>17218</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>7983</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>26023; 48090</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>22929; 47235</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>10290; 27399</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>3408; 15194</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>26023; 48090</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>22929; 47235</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>10290; 27399</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>3408; 15194</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>45183</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>27603</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>27680</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>11678</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>45183</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>27603</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>27680</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>11678</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>33725; 60179</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>17080; 39673</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>18545; 38483</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>6113; 20943</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>33725; 60179</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>17080; 39673</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>18545; 38483</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>6113; 20943</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>9633</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>14730</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>6161</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>5208</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>9633</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>14730</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>6161</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>5208</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>4842; 17072</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>8759; 23926</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2031; 12267</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1760; 12085</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>4842; 17072</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>8759; 23926</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2031; 12267</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1760; 12085</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>53465</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>65979</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>43101</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>23048</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>53465</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>65979</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>43101</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>23048</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>41788; 68429</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>51534; 82828</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>32533; 56041</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>10957; 34321</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>41788; 68429</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>51534; 82828</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>32533; 56041</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>10957; 34321</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>33839</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>38863</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>24597</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>8551</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>33839</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>38863</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>24597</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>8551</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>22960; 47530</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>27501; 52954</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>16646; 37206</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>4116; 15326</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>22960; 47530</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>27501; 52954</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>16646; 37206</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>4116; 15326</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>37268</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>52755</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>31577</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>3182</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>37268</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>52755</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>31577</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>3182</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>26273; 51291</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>39733; 68483</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>22014; 44391</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>427; 10883</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>26273; 51291</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>39733; 68483</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>22014; 44391</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>427; 10883</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>214775</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>233162</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>150333</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>59650</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>214775</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>233162</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>150333</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>59650</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>186380; 242506</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>203905; 263078</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>127366; 175939</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>44623; 78195</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>186380; 242506</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>203905; 263078</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>127366; 175939</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>44623; 78195</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P16A18-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16A18-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
